--- a/data/taggingData/tagRecaptures.xlsx
+++ b/data/taggingData/tagRecaptures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>fish</t>
   </si>
@@ -38,46 +38,97 @@
     <t>location</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>CK97</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Skokomish</t>
+  </si>
+  <si>
+    <t>CK55</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Anthony Battista</t>
+  </si>
+  <si>
+    <t>abattista@skokomish.org</t>
+  </si>
+  <si>
+    <t>541 North Tribal Center, Skokomish Nation, 98584</t>
+  </si>
+  <si>
+    <t>Skokomish River</t>
+  </si>
+  <si>
+    <t>CK85</t>
+  </si>
+  <si>
+    <t>Reed Island (Columbia River)</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>Gary McKenzie</t>
+  </si>
+  <si>
+    <t>794 South A Street, Washougle WA, 98671</t>
+  </si>
+  <si>
+    <t>Hood Canal area</t>
+  </si>
+  <si>
+    <t>CK118</t>
+  </si>
+  <si>
+    <t>Squaxin Island</t>
+  </si>
+  <si>
+    <t>Squaxin</t>
+  </si>
+  <si>
+    <t>Mike Foster</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Son Randy (autistic) is world traveller and would love a postcard</t>
+  </si>
+  <si>
+    <t>5231 Southeast Acadia Rd., Shelton WA, 98584</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>gear</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>CK97</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Hood Canal</t>
-  </si>
-  <si>
-    <t>Skokomish</t>
-  </si>
-  <si>
-    <t>CK55</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Anthony Battista</t>
-  </si>
-  <si>
-    <t>abattista@skokomish.org</t>
-  </si>
-  <si>
-    <t>541 North Tribal Center, Skokomish Nation, 98584</t>
+    <t>gillnet</t>
+  </si>
+  <si>
+    <t>sport</t>
   </si>
 </sst>
 </file>
@@ -122,9 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -406,23 +458,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,92 +489,192 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>7730</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>12064376185</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>12064376185</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>7713</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <v>43696</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>47.333882000000003</v>
+      </c>
+      <c r="F3">
+        <v>-123.11790000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>12064376185</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="H3">
-        <v>12064376185</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>17</v>
+      </c>
+      <c r="B4">
+        <v>7726</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43707</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>45.560350999999997</v>
+      </c>
+      <c r="F4">
+        <v>-122.33669999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>13606093559</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>7738</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43708</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>47.179876999999998</v>
+      </c>
+      <c r="F5">
+        <v>-122.922578</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5">
+        <v>13604630765</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/taggingData/tagRecaptures.xlsx
+++ b/data/taggingData/tagRecaptures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>fish</t>
   </si>
@@ -92,9 +92,6 @@
     <t>794 South A Street, Washougle WA, 98671</t>
   </si>
   <si>
-    <t>Hood Canal area</t>
-  </si>
-  <si>
     <t>CK118</t>
   </si>
   <si>
@@ -129,6 +126,24 @@
   </si>
   <si>
     <t>sport</t>
+  </si>
+  <si>
+    <t>no tag number; acoustic tag missing</t>
+  </si>
+  <si>
+    <t>Lower Harrison Reiver</t>
+  </si>
+  <si>
+    <t>Sts'ailes</t>
+  </si>
+  <si>
+    <t>Kim Charlie</t>
+  </si>
+  <si>
+    <t>4690 Salish Way, Agassiz BC, V0M1A1</t>
+  </si>
+  <si>
+    <t>Hood Canal</t>
   </si>
 </sst>
 </file>
@@ -458,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
@@ -489,13 +504,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -513,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -523,20 +538,20 @@
       <c r="B2">
         <v>7730</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
+      <c r="C2" s="2">
+        <v>43705</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>47.407499000000001</v>
+      </c>
+      <c r="F2">
+        <v>-123.136264</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -574,7 +589,7 @@
         <v>-123.11790000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
@@ -612,7 +627,7 @@
         <v>-122.33669999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -632,7 +647,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>7738</v>
@@ -641,7 +656,7 @@
         <v>43708</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>47.179876999999998</v>
@@ -650,13 +665,13 @@
         <v>-122.922578</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
       </c>
       <c r="J5">
         <v>13604630765</v>
@@ -665,10 +680,51 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43707</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6">
+        <v>49.251817000000003</v>
+      </c>
+      <c r="F6">
+        <v>-121.93721499999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6">
+        <v>16047962116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/data/taggingData/tagRecaptures.xlsx
+++ b/data/taggingData/tagRecaptures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>fish</t>
   </si>
@@ -144,6 +144,60 @@
   </si>
   <si>
     <t>Hood Canal</t>
+  </si>
+  <si>
+    <t>Nitinat Lake</t>
+  </si>
+  <si>
+    <t>hatchery</t>
+  </si>
+  <si>
+    <t>Nitinat Hatchery</t>
+  </si>
+  <si>
+    <t>Wya Point</t>
+  </si>
+  <si>
+    <t>CK203</t>
+  </si>
+  <si>
+    <t>CK65</t>
+  </si>
+  <si>
+    <t>PO Box 369, Port Alberni BC</t>
+  </si>
+  <si>
+    <t>captured by acquiantance; may not be returned</t>
+  </si>
+  <si>
+    <t>CK262</t>
+  </si>
+  <si>
+    <t>Columbia River</t>
+  </si>
+  <si>
+    <t>Caroline Sherry</t>
+  </si>
+  <si>
+    <t>released; contacted indirectly by Joe Smith (NOAA)</t>
+  </si>
+  <si>
+    <t>CK01</t>
+  </si>
+  <si>
+    <t>Rock Creek (Columbia River)</t>
+  </si>
+  <si>
+    <t>WDFW</t>
+  </si>
+  <si>
+    <t>Rick Heitz</t>
+  </si>
+  <si>
+    <t>5525 S 11th St., Ridgefield WA, 98642</t>
+  </si>
+  <si>
+    <t>captured by unknown FN group</t>
   </si>
 </sst>
 </file>
@@ -473,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,6 +781,146 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>7939</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43713</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>48.686259999999997</v>
+      </c>
+      <c r="F7">
+        <v>-124.83613099999999</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>12507453321</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>7715</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>48.970067</v>
+      </c>
+      <c r="F8">
+        <v>-125.62066299999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8">
+        <v>12507453321</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>8207</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>7689</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43713</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>45.699452000000001</v>
+      </c>
+      <c r="F10">
+        <v>-120.379026</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>13606095688</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>

--- a/data/taggingData/tagRecaptures.xlsx
+++ b/data/taggingData/tagRecaptures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>fish</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>captured by unknown FN group</t>
+  </si>
+  <si>
+    <t>tagBack</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -527,24 +533,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,379 +558,388 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>7730</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>43705</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>47.407499000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-123.136264</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>12064376185</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>7713</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>43696</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47.333882000000003</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-123.11790000000001</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12064376185</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
         <v>7726</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2">
         <v>43707</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>45.560350999999997</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-122.33669999999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>13606093559</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
         <v>7738</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>43708</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>47.179876999999998</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-122.922578</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>25</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>13604630765</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>43707</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>49.251817000000003</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-121.93721499999999</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>37</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>16047962116</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>44</v>
       </c>
       <c r="B7">
         <v>7939</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2">
         <v>43713</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>48.686259999999997</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-124.83613099999999</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>12507453321</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="B8">
         <v>7715</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>43697</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>48.970067</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-125.62066299999999</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>12507453321</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>46</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9">
         <v>8207</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
       <c r="B10">
         <v>7689</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>43713</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>53</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>45.699452000000001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-120.379026</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>54</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>13606095688</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/taggingData/tagRecaptures.xlsx
+++ b/data/taggingData/tagRecaptures.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>fish</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,6 +841,9 @@
       <c r="B8">
         <v>7715</v>
       </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
       <c r="D8" s="2">
         <v>43697</v>
       </c>
